--- a/app/seeds/bar.xlsx
+++ b/app/seeds/bar.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>コレクション種別</t>
     <rPh sb="6" eb="8">
@@ -211,6 +211,14 @@
   </si>
   <si>
     <t>idx_seed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータスCD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -297,8 +305,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,7 +459,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="135">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -516,6 +526,7 @@
     <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -583,6 +594,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -916,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1133,33 +1145,52 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>24</v>
       </c>
     </row>

--- a/app/seeds/bar.xlsx
+++ b/app/seeds/bar.xlsx
@@ -1152,9 +1152,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
         <v>39</v>
       </c>

--- a/app/seeds/bar.xlsx
+++ b/app/seeds/bar.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>コレクション種別</t>
     <rPh sb="6" eb="8">
@@ -211,14 +211,6 @@
   </si>
   <si>
     <t>idx_seed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステータスCD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -928,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1145,50 +1137,33 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>24</v>
       </c>
     </row>

--- a/app/seeds/bar.xlsx
+++ b/app/seeds/bar.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>コレクション種別</t>
     <rPh sb="6" eb="8">
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>idx_seed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status_cd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータスコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status_cd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -297,8 +309,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,7 +467,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="139">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -516,6 +534,9 @@
     <cellStyle name="ハイパーリンク" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -583,6 +604,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="138" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -916,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1133,34 +1157,56 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/app/seeds/bar.xlsx
+++ b/app/seeds/bar.xlsx
@@ -943,7 +943,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1164,9 +1164,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
         <v>39</v>
       </c>

--- a/app/seeds/bar.xlsx
+++ b/app/seeds/bar.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>コレクション種別</t>
     <rPh sb="6" eb="8">
@@ -211,18 +211,6 @@
   </si>
   <si>
     <t>idx_seed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status_cd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステータスコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status_cd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -940,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1157,54 +1145,34 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
